--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mfng-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mfng-Notch2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.09137833333333</v>
+        <v>22.77954133333333</v>
       </c>
       <c r="H2">
-        <v>42.274135</v>
+        <v>68.338624</v>
       </c>
       <c r="I2">
-        <v>0.8196825364201468</v>
+        <v>0.8649343844704168</v>
       </c>
       <c r="J2">
-        <v>0.8196825364201468</v>
+        <v>0.8649343844704167</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N2">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q2">
-        <v>388.0173849052522</v>
+        <v>26.76444243057778</v>
       </c>
       <c r="R2">
-        <v>3492.15646414727</v>
+        <v>240.8799818752</v>
       </c>
       <c r="S2">
-        <v>0.1684355222207271</v>
+        <v>0.01013573975681553</v>
       </c>
       <c r="T2">
-        <v>0.1684355222207271</v>
+        <v>0.01013573975681552</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.09137833333333</v>
+        <v>22.77954133333333</v>
       </c>
       <c r="H3">
-        <v>42.274135</v>
+        <v>68.338624</v>
       </c>
       <c r="I3">
-        <v>0.8196825364201468</v>
+        <v>0.8649343844704168</v>
       </c>
       <c r="J3">
-        <v>0.8196825364201468</v>
+        <v>0.8649343844704167</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>82.514188</v>
       </c>
       <c r="O3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q3">
-        <v>387.5795469919311</v>
+        <v>626.5451187108124</v>
       </c>
       <c r="R3">
-        <v>3488.21592292738</v>
+        <v>5638.906068397312</v>
       </c>
       <c r="S3">
-        <v>0.1682454599697889</v>
+        <v>0.2372736994476142</v>
       </c>
       <c r="T3">
-        <v>0.1682454599697888</v>
+        <v>0.2372736994476143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.09137833333333</v>
+        <v>22.77954133333333</v>
       </c>
       <c r="H4">
-        <v>42.274135</v>
+        <v>68.338624</v>
       </c>
       <c r="I4">
-        <v>0.8196825364201468</v>
+        <v>0.8649343844704168</v>
       </c>
       <c r="J4">
-        <v>0.8196825364201468</v>
+        <v>0.8649343844704167</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N4">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q4">
-        <v>476.72863322926</v>
+        <v>896.6348204741973</v>
       </c>
       <c r="R4">
-        <v>4290.55769906334</v>
+        <v>8069.713384267776</v>
       </c>
       <c r="S4">
-        <v>0.2069444293459981</v>
+        <v>0.339557127737605</v>
       </c>
       <c r="T4">
-        <v>0.206944429345998</v>
+        <v>0.339557127737605</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.09137833333333</v>
+        <v>22.77954133333333</v>
       </c>
       <c r="H5">
-        <v>42.274135</v>
+        <v>68.338624</v>
       </c>
       <c r="I5">
-        <v>0.8196825364201468</v>
+        <v>0.8649343844704168</v>
       </c>
       <c r="J5">
-        <v>0.8196825364201468</v>
+        <v>0.8649343844704167</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N5">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q5">
-        <v>635.9404611898938</v>
+        <v>734.0020391495465</v>
       </c>
       <c r="R5">
-        <v>5723.464150709045</v>
+        <v>6606.018352345919</v>
       </c>
       <c r="S5">
-        <v>0.2760571248836328</v>
+        <v>0.2779678175283819</v>
       </c>
       <c r="T5">
-        <v>0.2760571248836327</v>
+        <v>0.2779678175283819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.695136</v>
       </c>
       <c r="I6">
-        <v>0.01347847424050085</v>
+        <v>0.008798055815159926</v>
       </c>
       <c r="J6">
-        <v>0.01347847424050084</v>
+        <v>0.008798055815159925</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N6">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q6">
-        <v>6.380375444074666</v>
+        <v>0.2722461525333333</v>
       </c>
       <c r="R6">
-        <v>57.42337899667199</v>
+        <v>2.4502153728</v>
       </c>
       <c r="S6">
-        <v>0.002769674534426958</v>
+        <v>0.0001031000798551888</v>
       </c>
       <c r="T6">
-        <v>0.002769674534426957</v>
+        <v>0.0001031000798551887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.695136</v>
       </c>
       <c r="I7">
-        <v>0.01347847424050085</v>
+        <v>0.008798055815159926</v>
       </c>
       <c r="J7">
-        <v>0.01347847424050084</v>
+        <v>0.008798055815159925</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>82.514188</v>
       </c>
       <c r="O7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q7">
         <v>6.373175843285334</v>
@@ -883,10 +883,10 @@
         <v>57.358582589568</v>
       </c>
       <c r="S7">
-        <v>0.002766549240133693</v>
+        <v>0.002413532504535309</v>
       </c>
       <c r="T7">
-        <v>0.002766549240133692</v>
+        <v>0.002413532504535309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.695136</v>
       </c>
       <c r="I8">
-        <v>0.01347847424050085</v>
+        <v>0.008798055815159926</v>
       </c>
       <c r="J8">
-        <v>0.01347847424050084</v>
+        <v>0.008798055815159925</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N8">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q8">
-        <v>7.839101502336001</v>
+        <v>9.120510570496002</v>
       </c>
       <c r="R8">
-        <v>70.55191352102401</v>
+        <v>82.084595134464</v>
       </c>
       <c r="S8">
-        <v>0.003402896897544083</v>
+        <v>0.003453952826837834</v>
       </c>
       <c r="T8">
-        <v>0.003402896897544081</v>
+        <v>0.003453952826837834</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.695136</v>
       </c>
       <c r="I9">
-        <v>0.01347847424050085</v>
+        <v>0.008798055815159926</v>
       </c>
       <c r="J9">
-        <v>0.01347847424050084</v>
+        <v>0.008798055815159925</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N9">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q9">
-        <v>10.45710594503467</v>
+        <v>7.46622058832</v>
       </c>
       <c r="R9">
-        <v>94.11395350531198</v>
+        <v>67.19598529487999</v>
       </c>
       <c r="S9">
-        <v>0.004539353568396113</v>
+        <v>0.002827470403931594</v>
       </c>
       <c r="T9">
-        <v>0.00453935356839611</v>
+        <v>0.002827470403931593</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1328386666666667</v>
+        <v>0.07785033333333334</v>
       </c>
       <c r="H10">
-        <v>0.398516</v>
+        <v>0.233551</v>
       </c>
       <c r="I10">
-        <v>0.007727103243721278</v>
+        <v>0.002955960752552617</v>
       </c>
       <c r="J10">
-        <v>0.007727103243721277</v>
+        <v>0.002955960752552617</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N10">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q10">
-        <v>3.657819046159111</v>
+        <v>0.09146895164444446</v>
       </c>
       <c r="R10">
-        <v>32.92037141543199</v>
+        <v>0.8232205648000001</v>
       </c>
       <c r="S10">
-        <v>0.001587832620899642</v>
+        <v>3.463944717330018E-05</v>
       </c>
       <c r="T10">
-        <v>0.001587832620899642</v>
+        <v>3.463944717330017E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1328386666666667</v>
+        <v>0.07785033333333334</v>
       </c>
       <c r="H11">
-        <v>0.398516</v>
+        <v>0.233551</v>
       </c>
       <c r="I11">
-        <v>0.007727103243721278</v>
+        <v>0.002955960752552617</v>
       </c>
       <c r="J11">
-        <v>0.007727103243721277</v>
+        <v>0.002955960752552617</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>82.514188</v>
       </c>
       <c r="O11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q11">
-        <v>3.653691571667555</v>
+        <v>2.141252346843111</v>
       </c>
       <c r="R11">
-        <v>32.883224145008</v>
+        <v>19.271271121588</v>
       </c>
       <c r="S11">
-        <v>0.001586040914268746</v>
+        <v>0.0008108958965824327</v>
       </c>
       <c r="T11">
-        <v>0.001586040914268745</v>
+        <v>0.0008108958965824328</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1328386666666667</v>
+        <v>0.07785033333333334</v>
       </c>
       <c r="H12">
-        <v>0.398516</v>
+        <v>0.233551</v>
       </c>
       <c r="I12">
-        <v>0.007727103243721278</v>
+        <v>0.002955960752552617</v>
       </c>
       <c r="J12">
-        <v>0.007727103243721277</v>
+        <v>0.002955960752552617</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N12">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q12">
-        <v>4.494095219216</v>
+        <v>3.064298733269334</v>
       </c>
       <c r="R12">
-        <v>40.446856972944</v>
+        <v>27.578688599424</v>
       </c>
       <c r="S12">
-        <v>0.001950854019963975</v>
+        <v>0.001160455129155738</v>
       </c>
       <c r="T12">
-        <v>0.001950854019963974</v>
+        <v>0.001160455129155738</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1328386666666667</v>
+        <v>0.07785033333333334</v>
       </c>
       <c r="H13">
-        <v>0.398516</v>
+        <v>0.233551</v>
       </c>
       <c r="I13">
-        <v>0.007727103243721278</v>
+        <v>0.002955960752552617</v>
       </c>
       <c r="J13">
-        <v>0.007727103243721277</v>
+        <v>0.002955960752552617</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N13">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O13">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P13">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q13">
-        <v>5.994976569752444</v>
+        <v>2.508492272911667</v>
       </c>
       <c r="R13">
-        <v>53.954789127772</v>
+        <v>22.576430456205</v>
       </c>
       <c r="S13">
-        <v>0.002602375688588916</v>
+        <v>0.0009499702796411459</v>
       </c>
       <c r="T13">
-        <v>0.002602375688588916</v>
+        <v>0.000949970279641146</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.735334333333333</v>
+        <v>3.247624</v>
       </c>
       <c r="H14">
-        <v>8.206002999999999</v>
+        <v>9.742872</v>
       </c>
       <c r="I14">
-        <v>0.1591118860956311</v>
+        <v>0.1233115989618705</v>
       </c>
       <c r="J14">
-        <v>0.1591118860956311</v>
+        <v>0.1233115989618705</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N14">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O14">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P14">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q14">
-        <v>75.3196209593562</v>
+        <v>3.815741691733334</v>
       </c>
       <c r="R14">
-        <v>677.8765886342059</v>
+        <v>34.3416752256</v>
       </c>
       <c r="S14">
-        <v>0.03269569917042308</v>
+        <v>0.001445027852418638</v>
       </c>
       <c r="T14">
-        <v>0.03269569917042307</v>
+        <v>0.001445027852418638</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.735334333333333</v>
+        <v>3.247624</v>
       </c>
       <c r="H15">
-        <v>8.206002999999999</v>
+        <v>9.742872</v>
       </c>
       <c r="I15">
-        <v>0.1591118860956311</v>
+        <v>0.1233115989618705</v>
       </c>
       <c r="J15">
-        <v>0.1591118860956311</v>
+        <v>0.1233115989618705</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>82.514188</v>
       </c>
       <c r="O15">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P15">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q15">
-        <v>75.2346304745071</v>
+        <v>89.32501909643733</v>
       </c>
       <c r="R15">
-        <v>677.111674270564</v>
+        <v>803.9251718679361</v>
       </c>
       <c r="S15">
-        <v>0.03265880541963703</v>
+        <v>0.03382753627998972</v>
       </c>
       <c r="T15">
-        <v>0.03265880541963701</v>
+        <v>0.03382753627998972</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.735334333333333</v>
+        <v>3.247624</v>
       </c>
       <c r="H16">
-        <v>8.206002999999999</v>
+        <v>9.742872</v>
       </c>
       <c r="I16">
-        <v>0.1591118860956311</v>
+        <v>0.1233115989618705</v>
       </c>
       <c r="J16">
-        <v>0.1591118860956311</v>
+        <v>0.1233115989618705</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N16">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O16">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P16">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q16">
-        <v>92.539719487228</v>
+        <v>127.831053294592</v>
       </c>
       <c r="R16">
-        <v>832.8574753850519</v>
+        <v>1150.479479651328</v>
       </c>
       <c r="S16">
-        <v>0.0401708185879273</v>
+        <v>0.04840983675988466</v>
       </c>
       <c r="T16">
-        <v>0.04017081858792728</v>
+        <v>0.04840983675988465</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.735334333333333</v>
+        <v>3.247624</v>
       </c>
       <c r="H17">
-        <v>8.206002999999999</v>
+        <v>9.742872</v>
       </c>
       <c r="I17">
-        <v>0.1591118860956311</v>
+        <v>0.1233115989618705</v>
       </c>
       <c r="J17">
-        <v>0.1591118860956311</v>
+        <v>0.1233115989618705</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N17">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O17">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P17">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q17">
-        <v>123.4449701299778</v>
+        <v>104.64489181364</v>
       </c>
       <c r="R17">
-        <v>1111.004731169801</v>
+        <v>941.80402632276</v>
       </c>
       <c r="S17">
-        <v>0.05358656291764373</v>
+        <v>0.03962919806957749</v>
       </c>
       <c r="T17">
-        <v>0.05358656291764372</v>
+        <v>0.03962919806957749</v>
       </c>
     </row>
   </sheetData>
